--- a/Listas de precios/minorista/BUZON.xlsx
+++ b/Listas de precios/minorista/BUZON.xlsx
@@ -884,7 +884,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1046,19 +1046,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/BUZON.xlsx
+++ b/Listas de precios/minorista/BUZON.xlsx
@@ -884,7 +884,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1046,19 +1046,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/BUZON.xlsx
+++ b/Listas de precios/minorista/BUZON.xlsx
@@ -884,7 +884,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="25" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1046,19 +1046,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
